--- a/media/reference/Bajaj Capital/format.xlsx
+++ b/media/reference/Bajaj Capital/format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICCSADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICCSADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,24 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>S_No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Interval</t>
   </si>
   <si>
+    <t>Call_Number</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
     <t>Agent</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>S_No</t>
-  </si>
-  <si>
-    <t>Call_Number</t>
-  </si>
-  <si>
-    <t>Service</t>
+    <t>Login_Id</t>
   </si>
   <si>
     <t>Start_Time</t>
@@ -62,9 +65,15 @@
     <t>Desposition</t>
   </si>
   <si>
+    <t>Record_ID</t>
+  </si>
+  <si>
     <t>Lead_Id</t>
   </si>
   <si>
+    <t>Dialer_Type</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -77,31 +86,25 @@
     <t>Talk_Duration</t>
   </si>
   <si>
+    <t>Trunk_Duration</t>
+  </si>
+  <si>
     <t>Wrapup_Duration</t>
   </si>
   <si>
     <t>Hold_Duration</t>
   </si>
   <si>
+    <t>Call_Status</t>
+  </si>
+  <si>
+    <t>Hangup_By</t>
+  </si>
+  <si>
     <t>Child_CallNumbr</t>
   </si>
   <si>
     <t>Ivr_Terminal</t>
-  </si>
-  <si>
-    <t>Dialer_Type</t>
-  </si>
-  <si>
-    <t>Trunk_Duration</t>
-  </si>
-  <si>
-    <t>Login_Id</t>
-  </si>
-  <si>
-    <t>Call_Status</t>
-  </si>
-  <si>
-    <t>Hangup_By</t>
   </si>
 </sst>
 </file>
@@ -419,140 +422,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" customWidth="1"/>
-    <col min="27" max="27" width="24.85546875" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" customWidth="1"/>
-    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="70" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
+      <c r="AA1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
